--- a/app_demo1/testcases/uicase2.xlsx
+++ b/app_demo1/testcases/uicase2.xlsx
@@ -1098,7 +1098,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/app_demo1/testcases/uicase2.xlsx
+++ b/app_demo1/testcases/uicase2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="8385"/>
+    <workbookView windowWidth="17070" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>用例编号</t>
   </si>
@@ -45,10 +45,10 @@
     <t>setup</t>
   </si>
   <si>
-    <t>open_page</t>
-  </si>
-  <si>
-    <t>lianjia</t>
+    <t>get</t>
+  </si>
+  <si>
+    <t>{"url":"http://www.lianjia.com"}</t>
   </si>
   <si>
     <t>click</t>
@@ -69,19 +69,22 @@
     <t>搜索框</t>
   </si>
   <si>
-    <t>武汉</t>
+    <t>{"value":"武汉"}</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>{"value":5}</t>
   </si>
   <si>
     <t>搜索按钮</t>
   </si>
   <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>text=武汉</t>
-  </si>
-  <si>
-    <t>当代卡梅尔小镇</t>
+    <t>switch_to_next_windows</t>
+  </si>
+  <si>
+    <t>{"value":"当代卡梅尔小镇"}</t>
   </si>
   <si>
     <t>teardown</t>
@@ -95,12 +98,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,94 +115,90 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,54 +212,51 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,7 +265,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,6 +319,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -293,169 +361,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,13 +474,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,23 +492,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,8 +530,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -553,31 +549,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,152 +576,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -741,10 +731,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1095,10 +1082,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1106,10 +1093,10 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="16.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
@@ -1191,87 +1178,88 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="2"/>
-      <c r="C5" s="1">
-        <v>5</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>18</v>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6" s="2"/>
       <c r="C6" s="1">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="A7" s="2"/>
-      <c r="C7" s="1">
-        <v>7</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2"/>
       <c r="C8" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2"/>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1">
         <v>9</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A2:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/app_demo1/testcases/uicase2.xlsx
+++ b/app_demo1/testcases/uicase2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17070" windowHeight="8085"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>用例编号</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>close</t>
+  </si>
+  <si>
+    <t>quit</t>
   </si>
 </sst>
 </file>
@@ -98,10 +101,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -113,6 +116,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -121,7 +139,89 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,46 +235,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,75 +245,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,187 +268,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,17 +477,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,22 +496,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,6 +518,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -539,35 +545,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,10 +582,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,133 +594,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1082,10 +1085,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1256,6 +1259,11 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/app_demo1/testcases/uicase2.xlsx
+++ b/app_demo1/testcases/uicase2.xlsx
@@ -16,12 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
   <si>
     <t>用例编号</t>
   </si>
   <si>
-    <t>用例说明</t>
+    <t>结构</t>
   </si>
   <si>
     <t>操作顺序</t>
@@ -42,6 +42,15 @@
     <t>预期</t>
   </si>
   <si>
+    <t>测试说明</t>
+  </si>
+  <si>
+    <t>suitsetup</t>
+  </si>
+  <si>
+    <t>open_browser</t>
+  </si>
+  <si>
     <t>setup</t>
   </si>
   <si>
@@ -91,6 +100,18 @@
   </si>
   <si>
     <t>close</t>
+  </si>
+  <si>
+    <t>close,截图</t>
+  </si>
+  <si>
+    <t>{"value":"万科金色城市"}</t>
+  </si>
+  <si>
+    <t>截图，close</t>
+  </si>
+  <si>
+    <t>suitteardown</t>
   </si>
   <si>
     <t>quit</t>
@@ -101,10 +122,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -116,80 +137,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,6 +221,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -211,49 +236,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,12 +289,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -286,174 +337,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -477,17 +498,54 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="dashed">
+        <color theme="0" tint="-0.5"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="dashed">
+        <color theme="0" tint="-0.5"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="dashed">
+        <color theme="0" tint="-0.5"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color theme="0" tint="-0.5"/>
+      </left>
+      <right style="dashed">
+        <color theme="0" tint="-0.5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color theme="0" tint="-0.5"/>
+      </left>
+      <right style="dashed">
+        <color theme="0" tint="-0.5"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color theme="0" tint="-0.5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,7 +554,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,24 +591,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -545,32 +600,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,10 +640,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,147 +652,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1085,26 +1149,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="24.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="33" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="16.75" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1129,44 +1194,38 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4"/>
+      <c r="C4" s="1">
         <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2"/>
-      <c r="C4" s="1">
-        <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>14</v>
@@ -1177,97 +1236,267 @@
       <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4"/>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2"/>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4"/>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4"/>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4"/>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4"/>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2"/>
-      <c r="C6" s="1">
+      <c r="G9" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4"/>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5"/>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="I11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:7">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:6">
+      <c r="A13" s="4"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:7">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:7">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:6">
+      <c r="A16" s="4"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:6">
+      <c r="A17" s="4"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2"/>
-      <c r="D7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2"/>
-      <c r="C8" s="1">
+      <c r="D17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:7">
+      <c r="A18" s="4"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:7">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2"/>
-      <c r="C9" s="1">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1" t="s">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="1">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="4:4">
-      <c r="D11" s="1" t="s">
-        <v>25</v>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:9">
+      <c r="A20" s="5"/>
+      <c r="B20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A9"/>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A12:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/app_demo1/testcases/uicase2.xlsx
+++ b/app_demo1/testcases/uicase2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>用例编号</t>
   </si>
@@ -39,19 +39,22 @@
     <t>value</t>
   </si>
   <si>
-    <t>预期</t>
+    <t>执行结果</t>
   </si>
   <si>
     <t>测试说明</t>
   </si>
   <si>
-    <t>suitsetup</t>
+    <t>SUITE_SETUP</t>
   </si>
   <si>
     <t>open_browser</t>
   </si>
   <si>
-    <t>setup</t>
+    <t>{"browser":"chrome","website":"lianjia"}</t>
+  </si>
+  <si>
+    <t>SET_UP</t>
   </si>
   <si>
     <t>get</t>
@@ -96,7 +99,7 @@
     <t>{"value":"当代卡梅尔小镇"}</t>
   </si>
   <si>
-    <t>teardown</t>
+    <t>TEARDOWN</t>
   </si>
   <si>
     <t>close</t>
@@ -105,13 +108,16 @@
     <t>close,截图</t>
   </si>
   <si>
+    <t>SETUP</t>
+  </si>
+  <si>
     <t>{"value":"万科金色城市"}</t>
   </si>
   <si>
     <t>截图，close</t>
   </si>
   <si>
-    <t>suitteardown</t>
+    <t>SUITE_TEARDOWN</t>
   </si>
   <si>
     <t>quit</t>
@@ -122,10 +128,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -137,6 +143,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -146,6 +167,96 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,114 +270,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,25 +301,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,151 +475,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,26 +556,44 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,35 +624,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,10 +646,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,16 +658,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -670,115 +676,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1152,7 +1158,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1163,8 +1169,8 @@
     <col min="4" max="4" width="24.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="53.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.75" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -1198,12 +1204,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:7">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1211,15 +1220,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>12</v>
+      </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1228,13 +1236,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1243,16 +1251,16 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1261,12 +1269,12 @@
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1275,11 +1283,11 @@
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1288,7 +1296,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1299,16 +1307,16 @@
         <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1317,28 +1325,27 @@
         <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="5"/>
       <c r="B11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>27</v>
+      </c>
       <c r="D11" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="I11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:7">
@@ -1346,151 +1353,140 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1"/>
+        <v>30</v>
+      </c>
       <c r="D12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>13</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:6">
       <c r="A13" s="4"/>
-      <c r="B13" s="1"/>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:7">
       <c r="A14" s="4"/>
-      <c r="B14" s="1"/>
       <c r="C14" s="1">
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:7">
       <c r="A15" s="4"/>
-      <c r="B15" s="1"/>
       <c r="C15" s="1">
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:6">
       <c r="A16" s="4"/>
-      <c r="B16" s="1"/>
       <c r="C16" s="1">
         <v>4</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:6">
       <c r="A17" s="4"/>
-      <c r="B17" s="1"/>
       <c r="C17" s="1">
         <v>5</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:7">
       <c r="A18" s="4"/>
-      <c r="B18" s="1"/>
       <c r="C18" s="1">
         <v>6</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:7">
       <c r="A19" s="4"/>
-      <c r="B19" s="1"/>
       <c r="C19" s="1">
         <v>7</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G19" s="3"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:9">
       <c r="A20" s="5"/>
       <c r="B20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="1"/>
+        <v>27</v>
+      </c>
       <c r="D20" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/app_demo1/testcases/uicase2.xlsx
+++ b/app_demo1/testcases/uicase2.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="lianjia1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
   <si>
     <t>用例编号</t>
   </si>
@@ -39,10 +39,16 @@
     <t>value</t>
   </si>
   <si>
+    <t>测试说明</t>
+  </si>
+  <si>
     <t>执行结果</t>
   </si>
   <si>
-    <t>测试说明</t>
+    <t>执行信息</t>
+  </si>
+  <si>
+    <t>执行时间</t>
   </si>
   <si>
     <t>SUITE_SETUP</t>
@@ -54,6 +60,9 @@
     <t>{"browser":"chrome","website":"lianjia"}</t>
   </si>
   <si>
+    <t>ui001</t>
+  </si>
+  <si>
     <t>SET_UP</t>
   </si>
   <si>
@@ -102,22 +111,28 @@
     <t>TEARDOWN</t>
   </si>
   <si>
+    <t>close,截图</t>
+  </si>
+  <si>
+    <t>ui002</t>
+  </si>
+  <si>
+    <t>SETUP</t>
+  </si>
+  <si>
+    <t>{"value":"万科金色城市"}</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>截图，close</t>
+  </si>
+  <si>
+    <t>SUITE_TEARDOWN</t>
+  </si>
+  <si>
     <t>close</t>
-  </si>
-  <si>
-    <t>close,截图</t>
-  </si>
-  <si>
-    <t>SETUP</t>
-  </si>
-  <si>
-    <t>{"value":"万科金色城市"}</t>
-  </si>
-  <si>
-    <t>截图，close</t>
-  </si>
-  <si>
-    <t>SUITE_TEARDOWN</t>
   </si>
   <si>
     <t>quit</t>
@@ -128,10 +143,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -143,7 +158,77 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,106 +242,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,17 +280,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,187 +310,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,21 +556,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -571,20 +571,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,17 +621,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,10 +661,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,137 +673,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -802,6 +817,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1155,27 +1173,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="24.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="53.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="16.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1200,34 +1218,40 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="2:7">
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2">
-        <v>1</v>
+      <c r="A3" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1236,13 +1260,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1251,16 +1275,16 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1269,12 +1293,12 @@
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1283,11 +1307,11 @@
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1296,7 +1320,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1307,16 +1331,16 @@
         <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1325,42 +1349,40 @@
         <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:8">
       <c r="A11" s="5"/>
       <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="I11" s="1" t="s">
-        <v>29</v>
+      <c r="H11" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:7">
-      <c r="A12" s="2">
-        <v>2</v>
+      <c r="A12" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:6">
@@ -1369,13 +1391,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:7">
@@ -1384,16 +1406,16 @@
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:7">
@@ -1402,12 +1424,12 @@
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:6">
@@ -1416,11 +1438,11 @@
         <v>4</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:6">
@@ -1429,7 +1451,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1440,16 +1462,16 @@
         <v>6</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:7">
@@ -1458,35 +1480,48 @@
         <v>7</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:9">
+    <row r="20" s="1" customFormat="1" spans="1:8">
       <c r="A20" s="5"/>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="I20" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
+      <c r="H20" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:8">
+      <c r="A21" s="6"/>
       <c r="B21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/app_demo1/testcases/uicase2.xlsx
+++ b/app_demo1/testcases/uicase2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="19890" windowHeight="7515"/>
   </bookViews>
   <sheets>
     <sheet name="lianjia1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
   <si>
     <t>用例编号</t>
   </si>
@@ -24,7 +24,10 @@
     <t>结构</t>
   </si>
   <si>
-    <t>操作顺序</t>
+    <t>测试说明</t>
+  </si>
+  <si>
+    <t>执行顺序</t>
   </si>
   <si>
     <t>操作</t>
@@ -39,9 +42,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>测试说明</t>
-  </si>
-  <si>
     <t>执行结果</t>
   </si>
   <si>
@@ -60,6 +60,12 @@
     <t>{"browser":"chrome","website":"lianjia"}</t>
   </si>
   <si>
+    <t>set_page_load_timeout</t>
+  </si>
+  <si>
+    <t>{"timeout":15}</t>
+  </si>
+  <si>
     <t>ui001</t>
   </si>
   <si>
@@ -93,40 +99,49 @@
     <t>{"value":"武汉"}</t>
   </si>
   <si>
+    <t>wait_until_page_contain_element</t>
+  </si>
+  <si>
+    <t>搜索提示框</t>
+  </si>
+  <si>
+    <t>{"timeout":5}</t>
+  </si>
+  <si>
+    <t>搜索按钮</t>
+  </si>
+  <si>
+    <t>switch_to_next_windows</t>
+  </si>
+  <si>
+    <t>{"value":"当代卡梅尔小镇"}</t>
+  </si>
+  <si>
+    <t>TEARDOWN</t>
+  </si>
+  <si>
+    <t>close,截图</t>
+  </si>
+  <si>
+    <t>ui002</t>
+  </si>
+  <si>
+    <t>SETUP</t>
+  </si>
+  <si>
     <t>sleep</t>
   </si>
   <si>
     <t>{"value":5}</t>
   </si>
   <si>
-    <t>搜索按钮</t>
-  </si>
-  <si>
-    <t>switch_to_next_windows</t>
-  </si>
-  <si>
-    <t>{"value":"当代卡梅尔小镇"}</t>
-  </si>
-  <si>
-    <t>TEARDOWN</t>
-  </si>
-  <si>
-    <t>close,截图</t>
-  </si>
-  <si>
-    <t>ui002</t>
-  </si>
-  <si>
-    <t>SETUP</t>
-  </si>
-  <si>
     <t>{"value":"万科金色城市"}</t>
   </si>
   <si>
+    <t>截图，close</t>
+  </si>
+  <si>
     <t>check</t>
-  </si>
-  <si>
-    <t>截图，close</t>
   </si>
   <si>
     <t>SUITE_TEARDOWN</t>
@@ -143,10 +158,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -159,6 +174,135 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,135 +315,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -310,13 +325,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,163 +505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,17 +571,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,15 +606,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,17 +645,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,10 +676,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -673,133 +688,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -810,6 +825,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -817,9 +835,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1173,22 +1188,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="24.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="53.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="53.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.875" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
@@ -1228,306 +1243,333 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:8">
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="4"/>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="5"/>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="4"/>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="5"/>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="4"/>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="C7" s="1">
+    <row r="7" spans="1:8">
+      <c r="A7" s="5"/>
+      <c r="D7" s="1">
         <v>4</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="4"/>
-      <c r="C8" s="1">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="5"/>
+      <c r="D8" s="1">
         <v>5</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="E8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="4"/>
-      <c r="C9" s="1">
+      <c r="A9" s="5"/>
+      <c r="D9" s="1">
         <v>6</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="5"/>
+      <c r="D10" s="1">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="4"/>
-      <c r="C10" s="1">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="5"/>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:7">
-      <c r="A12" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="6"/>
       <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:6">
-      <c r="A13" s="4"/>
-      <c r="C13" s="1">
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1">
+        <v>9</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:8">
+      <c r="A13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="G13" s="4"/>
+      <c r="H13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="3" t="s">
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:7">
+      <c r="A14" s="5"/>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:7">
-      <c r="A14" s="4"/>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="G14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="3" t="s">
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:8">
+      <c r="A15" s="5"/>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:7">
-      <c r="A15" s="4"/>
-      <c r="C15" s="1">
-        <v>3</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="G15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:6">
-      <c r="A16" s="4"/>
-      <c r="C16" s="1">
+    <row r="16" s="1" customFormat="1" spans="1:8">
+      <c r="A16" s="5"/>
+      <c r="D16" s="1">
         <v>4</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:6">
-      <c r="A17" s="4"/>
-      <c r="C17" s="1">
+      <c r="E16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:7">
+      <c r="A17" s="5"/>
+      <c r="D17" s="1">
         <v>5</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="E17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:7">
-      <c r="A18" s="4"/>
-      <c r="C18" s="1">
+      <c r="A18" s="5"/>
+      <c r="D18" s="1">
         <v>6</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:8">
+      <c r="A19" s="5"/>
+      <c r="D19" s="1">
+        <v>7</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:7">
-      <c r="A19" s="4"/>
-      <c r="C19" s="1">
-        <v>7</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="3"/>
+      <c r="G19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:8">
       <c r="A20" s="5"/>
-      <c r="B20" s="1" t="s">
+      <c r="D20" s="1">
+        <v>8</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:8">
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:8">
       <c r="A21" s="6"/>
       <c r="B21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="2:4">
+        <v>33</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="1">
+        <v>9</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" customFormat="1" spans="1:8">
+      <c r="A22" s="6"/>
       <c r="B22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A13:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/app_demo1/testcases/uicase2.xlsx
+++ b/app_demo1/testcases/uicase2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7515"/>
+    <workbookView windowWidth="19935" windowHeight="8385" tabRatio="534"/>
   </bookViews>
   <sheets>
     <sheet name="lianjia1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
   <si>
     <t>用例编号</t>
   </si>
@@ -42,6 +42,9 @@
     <t>value</t>
   </si>
   <si>
+    <t>输出数据</t>
+  </si>
+  <si>
     <t>执行结果</t>
   </si>
   <si>
@@ -114,6 +117,9 @@
     <t>switch_to_next_windows</t>
   </si>
   <si>
+    <t>clear</t>
+  </si>
+  <si>
     <t>{"value":"当代卡梅尔小镇"}</t>
   </si>
   <si>
@@ -129,10 +135,7 @@
     <t>SETUP</t>
   </si>
   <si>
-    <t>sleep</t>
-  </si>
-  <si>
-    <t>{"value":5}</t>
+    <t>text</t>
   </si>
   <si>
     <t>{"value":"万科金色城市"}</t>
@@ -142,6 +145,9 @@
   </si>
   <si>
     <t>check</t>
+  </si>
+  <si>
+    <t>{"attr":"text","value":"check_value"}</t>
   </si>
   <si>
     <t>SUITE_TEARDOWN</t>
@@ -158,10 +164,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -172,8 +178,115 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,72 +300,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,57 +315,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -325,31 +331,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,158 +515,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -525,6 +531,19 @@
       <right style="dashed">
         <color theme="0" tint="-0.5"/>
       </right>
+      <top style="dashed">
+        <color theme="0" tint="-0.5"/>
+      </top>
+      <bottom style="dashed">
+        <color theme="0" tint="-0.5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color theme="0" tint="-0.5"/>
+      </left>
+      <right/>
       <top style="dashed">
         <color theme="0" tint="-0.5"/>
       </top>
@@ -571,17 +590,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="hair">
+        <color auto="1"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="hair">
+        <color auto="1"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="hair">
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color theme="0" tint="-0.5"/>
+      </right>
+      <top style="dashed">
+        <color theme="0" tint="-0.5"/>
+      </top>
+      <bottom style="dashed">
+        <color theme="0" tint="-0.5"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,56 +623,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,8 +645,73 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,10 +723,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -688,137 +735,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -828,16 +875,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1188,10 +1253,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1200,15 +1267,16 @@
     <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="53.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="45.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1236,340 +1304,443 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="2:8">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12">
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="3"/>
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="1" t="s">
+      <c r="E4" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="6"/>
       <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="6"/>
       <c r="D6" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="5"/>
+      <c r="H6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="6"/>
       <c r="D7" s="1">
         <v>4</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="5"/>
+      <c r="H7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="6"/>
       <c r="D8" s="1">
         <v>5</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="6"/>
       <c r="D9" s="1">
         <v>6</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="6"/>
+      <c r="E10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="6"/>
+      <c r="D11" s="1">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="6"/>
+      <c r="D12" s="1">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="5"/>
-      <c r="D10" s="1">
+      <c r="H12" s="2"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="7"/>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1">
+        <v>9</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:11">
+      <c r="A14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:7">
+      <c r="A15" s="6"/>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:9">
+      <c r="A16" s="6"/>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:9">
+      <c r="A17" s="6"/>
+      <c r="E17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:9">
+      <c r="A18" s="6"/>
+      <c r="E18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:7">
+      <c r="A19" s="6"/>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:7">
+      <c r="A20" s="6"/>
+      <c r="D20" s="1">
+        <v>6</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:7">
+      <c r="A21" s="6"/>
+      <c r="E21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:9">
+      <c r="A22" s="6"/>
+      <c r="D22" s="1">
         <v>7</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="E22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:9">
+      <c r="A23" s="6"/>
+      <c r="D23" s="1">
+        <v>8</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="5"/>
-      <c r="D11" s="1">
-        <v>8</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="6"/>
-      <c r="B12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:9">
+      <c r="A24" s="7"/>
+      <c r="B24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="1">
         <v>9</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:8">
-      <c r="A13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:7">
-      <c r="A14" s="5"/>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:8">
-      <c r="A15" s="5"/>
-      <c r="D15" s="1">
-        <v>3</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:8">
-      <c r="A16" s="5"/>
-      <c r="D16" s="1">
-        <v>4</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:7">
-      <c r="A17" s="5"/>
-      <c r="D17" s="1">
-        <v>5</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:7">
-      <c r="A18" s="5"/>
-      <c r="D18" s="1">
-        <v>6</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:8">
-      <c r="A19" s="5"/>
-      <c r="D19" s="1">
-        <v>7</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:8">
-      <c r="A20" s="5"/>
-      <c r="D20" s="1">
-        <v>8</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:8">
-      <c r="A21" s="6"/>
-      <c r="B21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="1">
-        <v>9</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" customFormat="1" spans="1:8">
-      <c r="A22" s="6"/>
-      <c r="B22" s="1" t="s">
+      <c r="E24" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="4" t="s">
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" customFormat="1" spans="1:9">
+      <c r="A25" s="7"/>
+      <c r="B25" s="1" t="s">
         <v>44</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="A14:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/app_demo1/testcases/uicase2.xlsx
+++ b/app_demo1/testcases/uicase2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="8385" tabRatio="534"/>
+    <workbookView windowWidth="19890" windowHeight="7515" tabRatio="534"/>
   </bookViews>
   <sheets>
     <sheet name="lianjia1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
   <si>
     <t>用例编号</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>SUITE_SETUP</t>
+  </si>
+  <si>
+    <t>set_variable</t>
+  </si>
+  <si>
+    <t>{"username":"yangjian","password":"123456","目标城市":"天纵半岛蓝湾"}</t>
   </si>
   <si>
     <t>open_browser</t>
@@ -178,6 +184,118 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -187,15 +305,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,119 +327,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -331,31 +337,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,25 +481,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,121 +493,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,21 +596,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="dashed">
         <color theme="0" tint="-0.5"/>
@@ -618,26 +609,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="hair">
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="hair">
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="hair">
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="hair">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,6 +644,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,15 +704,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -715,6 +712,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -723,10 +729,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -735,175 +741,184 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1253,12 +1268,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1269,9 +1284,10 @@
     <col min="4" max="4" width="9.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="45.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="10.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9" style="2"/>
     <col min="11" max="11" width="8.875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
@@ -1301,446 +1317,459 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:12">
+    <row r="2" ht="15" customHeight="1" spans="2:12">
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="3"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="2:12">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="10"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="H4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1">
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="13"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="6"/>
-      <c r="D5" s="1">
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="13"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="8"/>
+      <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="8"/>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="13"/>
+    </row>
+    <row r="8" ht="27" spans="1:12">
+      <c r="A8" s="8"/>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="8"/>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="8"/>
+      <c r="D10" s="1">
+        <v>6</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="8"/>
+      <c r="E11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="8"/>
+      <c r="D12" s="1">
+        <v>7</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="8"/>
+      <c r="D13" s="1">
+        <v>8</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="9"/>
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="1">
+        <v>9</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:11">
+      <c r="A15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G15" s="7"/>
+      <c r="H15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:7">
+      <c r="A16" s="8"/>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="6"/>
-      <c r="D6" s="1">
+      <c r="F16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:9">
+      <c r="A17" s="8"/>
+      <c r="D17" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="27" spans="1:9">
+      <c r="A18" s="8"/>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:9">
+      <c r="A19" s="8"/>
+      <c r="E19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:7">
+      <c r="A20" s="8"/>
+      <c r="D20" s="1">
+        <v>5</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:7">
+      <c r="A21" s="8"/>
+      <c r="D21" s="1">
+        <v>6</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:7">
+      <c r="A22" s="8"/>
+      <c r="E22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="G22" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:9">
+      <c r="A23" s="8"/>
+      <c r="D23" s="1">
+        <v>7</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="6"/>
-      <c r="D7" s="1">
-        <v>4</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="F23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="6"/>
-      <c r="D8" s="1">
-        <v>5</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="6"/>
-      <c r="D9" s="1">
-        <v>6</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="6"/>
-      <c r="E10" s="5" t="s">
+      <c r="H23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:9">
+      <c r="A24" s="8"/>
+      <c r="D24" s="1">
+        <v>8</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="10"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="6"/>
-      <c r="D11" s="1">
-        <v>7</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="10"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="6"/>
-      <c r="D12" s="1">
-        <v>8</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="10"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="7"/>
-      <c r="B13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:9">
+      <c r="A25" s="9"/>
+      <c r="B25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="1">
         <v>9</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="10"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:11">
-      <c r="A14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:7">
-      <c r="A15" s="6"/>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:9">
-      <c r="A16" s="6"/>
-      <c r="D16" s="1">
-        <v>3</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:9">
-      <c r="A17" s="6"/>
-      <c r="E17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:9">
-      <c r="A18" s="6"/>
-      <c r="E18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:7">
-      <c r="A19" s="6"/>
-      <c r="D19" s="1">
-        <v>5</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:7">
-      <c r="A20" s="6"/>
-      <c r="D20" s="1">
-        <v>6</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:7">
-      <c r="A21" s="6"/>
-      <c r="E21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:9">
-      <c r="A22" s="6"/>
-      <c r="D22" s="1">
-        <v>7</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:9">
-      <c r="A23" s="6"/>
-      <c r="D23" s="1">
-        <v>8</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:9">
-      <c r="A24" s="7"/>
-      <c r="B24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="1">
-        <v>9</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" customFormat="1" spans="1:9">
-      <c r="A25" s="7"/>
-      <c r="B25" s="1" t="s">
+      <c r="E25" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="12"/>
-    </row>
-    <row r="26" spans="2:5">
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:9">
+      <c r="A26" s="9"/>
       <c r="B26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="1" t="s">
         <v>46</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="A14:A24"/>
+    <mergeCell ref="A5:A14"/>
+    <mergeCell ref="A15:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/app_demo1/testcases/uicase2.xlsx
+++ b/app_demo1/testcases/uicase2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
   <si>
     <t>用例编号</t>
   </si>
@@ -72,7 +72,7 @@
     <t>set_page_load_timeout</t>
   </si>
   <si>
-    <t>{"timeout":15}</t>
+    <t>{"timeout":20}</t>
   </si>
   <si>
     <t>ui001</t>
@@ -127,6 +127,15 @@
   </si>
   <si>
     <t>{"value":"当代卡梅尔小镇"}</t>
+  </si>
+  <si>
+    <t>二手房在售</t>
+  </si>
+  <si>
+    <t>经纪人</t>
+  </si>
+  <si>
+    <t>{"value":"罗振"}</t>
   </si>
   <si>
     <t>TEARDOWN</t>
@@ -871,7 +880,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -894,6 +903,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1268,12 +1280,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1340,8 +1352,8 @@
       <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="1" t="s">
@@ -1353,10 +1365,10 @@
       <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5"/>
@@ -1369,10 +1381,10 @@
       <c r="H4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="6" t="s">
@@ -1391,10 +1403,10 @@
       <c r="H5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="8"/>
@@ -1411,10 +1423,10 @@
         <v>25</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="8"/>
@@ -1433,10 +1445,10 @@
       <c r="H7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" ht="27" spans="1:12">
       <c r="A8" s="8"/>
@@ -1453,10 +1465,10 @@
       <c r="H8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="8"/>
@@ -1471,10 +1483,10 @@
         <v>33</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="8"/>
@@ -1487,13 +1499,16 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="8"/>
+      <c r="D11" s="1">
+        <v>7</v>
+      </c>
       <c r="E11" s="7" t="s">
         <v>35</v>
       </c>
@@ -1504,15 +1519,15 @@
         <v>28</v>
       </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="8"/>
       <c r="D12" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>26</v>
@@ -1526,15 +1541,15 @@
       <c r="H12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="8"/>
       <c r="D13" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>23</v>
@@ -1544,232 +1559,292 @@
         <v>33</v>
       </c>
       <c r="H13" s="4"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="9"/>
-      <c r="B14" s="1" t="s">
+      <c r="D14" s="1">
+        <v>10</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="G14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="1">
-        <v>9</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="13"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:11">
-      <c r="A15" s="6" t="s">
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="9"/>
+      <c r="D15" s="1">
+        <v>11</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:7">
-      <c r="A16" s="8"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="9"/>
       <c r="D16" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="10"/>
+      <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="1">
+        <v>13</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:11">
+      <c r="A18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:7">
+      <c r="A19" s="8"/>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:9">
-      <c r="A17" s="8"/>
-      <c r="D17" s="1">
-        <v>3</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="27" spans="1:9">
-      <c r="A18" s="8"/>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:9">
-      <c r="A19" s="8"/>
-      <c r="E19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:7">
+    <row r="20" s="1" customFormat="1" spans="1:9">
       <c r="A20" s="8"/>
       <c r="D20" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="G20" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="27" spans="1:9">
       <c r="A21" s="8"/>
-      <c r="D21" s="1">
-        <v>6</v>
-      </c>
       <c r="E21" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:7">
+      <c r="G21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:9">
       <c r="A22" s="8"/>
       <c r="E22" s="7" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:9">
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:7">
       <c r="A23" s="8"/>
       <c r="D23" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>24</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F23" s="7"/>
       <c r="G23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:7">
       <c r="A24" s="8"/>
       <c r="D24" s="1">
+        <v>6</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:7">
+      <c r="A25" s="8"/>
+      <c r="E25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:9">
+      <c r="A26" s="8"/>
+      <c r="D26" s="1">
+        <v>7</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:9">
+      <c r="A27" s="8"/>
+      <c r="D27" s="1">
         <v>8</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7" t="s">
+      <c r="F27" s="7"/>
+      <c r="G27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:9">
-      <c r="A25" s="9"/>
-      <c r="B25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:9">
+      <c r="A28" s="10"/>
+      <c r="B28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="1">
         <v>9</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" s="2" customFormat="1" spans="1:9">
-      <c r="A26" s="9"/>
-      <c r="B26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="7" t="s">
+      <c r="E28" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="15"/>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7" t="s">
         <v>48</v>
+      </c>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="1:9">
+      <c r="A29" s="10"/>
+      <c r="B29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="16"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A5:A14"/>
-    <mergeCell ref="A15:A25"/>
+    <mergeCell ref="A5:A17"/>
+    <mergeCell ref="A18:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/app_demo1/testcases/uicase2.xlsx
+++ b/app_demo1/testcases/uicase2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7515" tabRatio="534"/>
+    <workbookView windowWidth="24645" windowHeight="12015" tabRatio="534"/>
   </bookViews>
   <sheets>
     <sheet name="lianjia1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="55">
   <si>
     <t>用例编号</t>
   </si>
@@ -99,6 +99,12 @@
     <t>default_city</t>
   </si>
   <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>{"src":"&lt;default_city&gt;","dst":"","type":"="}</t>
+  </si>
+  <si>
     <t>click</t>
   </si>
   <si>
@@ -141,7 +147,10 @@
     <t>经纪人</t>
   </si>
   <si>
-    <t>{"value":"&lt;username&gt;"}</t>
+    <t>{"timeout":10}</t>
+  </si>
+  <si>
+    <t>{"value":"&lt;default_city&gt;"}</t>
   </si>
   <si>
     <t>TEARDOWN</t>
@@ -160,9 +169,6 @@
   </si>
   <si>
     <t>截图，close</t>
-  </si>
-  <si>
-    <t>check</t>
   </si>
   <si>
     <t>{"attr":"text","value":"check_value"}</t>
@@ -183,9 +189,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -883,7 +889,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -900,9 +906,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1271,12 +1274,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1289,7 +1292,7 @@
     <col min="6" max="6" width="15.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="51.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20" style="2" customWidth="1"/>
     <col min="10" max="10" width="9" style="2"/>
     <col min="11" max="11" width="8.875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
@@ -1343,8 +1346,8 @@
       <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="1" t="s">
@@ -1356,10 +1359,10 @@
       <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="4"/>
@@ -1372,10 +1375,10 @@
       <c r="H4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="4" t="s">
@@ -1394,12 +1397,12 @@
       <c r="H5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" ht="21" customHeight="1" spans="1:12">
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" ht="18" customHeight="1" spans="1:12">
       <c r="A6" s="6"/>
       <c r="E6" s="5" t="s">
         <v>23</v>
@@ -1411,450 +1414,486 @@
         <v>25</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="7"/>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" ht="18" customHeight="1" spans="1:12">
+      <c r="A7" s="6"/>
       <c r="E7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="6"/>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="7"/>
-      <c r="D8" s="1">
+      <c r="H8" s="3"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="6"/>
+      <c r="D9" s="1">
         <v>3</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="F9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" ht="24" customHeight="1" spans="1:12">
-      <c r="A9" s="7"/>
-      <c r="D9" s="1">
+      <c r="G9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" ht="30" customHeight="1" spans="1:12">
+      <c r="A10" s="6"/>
+      <c r="D10" s="1">
         <v>4</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="E10" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="7"/>
-      <c r="D10" s="1">
-        <v>5</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="10"/>
+      <c r="H10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="7"/>
+      <c r="A11" s="6"/>
       <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="6"/>
+      <c r="D12" s="1">
         <v>6</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="10"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="7"/>
-      <c r="D12" s="1">
+      <c r="E12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="6"/>
+      <c r="D13" s="1">
         <v>7</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="10"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="7"/>
-      <c r="D13" s="1">
-        <v>8</v>
-      </c>
       <c r="E13" s="5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="6"/>
+      <c r="D14" s="1">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="10"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="7"/>
-      <c r="D14" s="1">
+      <c r="F14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="6"/>
+      <c r="D15" s="1">
         <v>9</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="10"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="7"/>
-      <c r="D15" s="1">
+      <c r="E15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" ht="27" spans="1:12">
+      <c r="A16" s="6"/>
+      <c r="E16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="6"/>
+      <c r="D17" s="1">
         <v>10</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="10"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="7"/>
-      <c r="D16" s="1">
+      <c r="E17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="6"/>
+      <c r="D18" s="1">
         <v>11</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="10"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="7"/>
-      <c r="D17" s="1">
+      <c r="F18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="6"/>
+      <c r="D19" s="1">
         <v>12</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="10"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="8"/>
-      <c r="B18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="E19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="7"/>
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="1">
         <v>13</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="10"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:11">
-      <c r="A19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:7">
-      <c r="A20" s="7"/>
-      <c r="D20" s="1">
-        <v>2</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:11">
+      <c r="A21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:7">
+      <c r="A22" s="6"/>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:9">
-      <c r="A21" s="7"/>
-      <c r="D21" s="1">
+    <row r="23" s="1" customFormat="1" spans="1:9">
+      <c r="A23" s="6"/>
+      <c r="D23" s="1">
         <v>3</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="27" spans="1:9">
-      <c r="A22" s="7"/>
-      <c r="E22" s="5" t="s">
+      <c r="G23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5" t="s">
+      <c r="H23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="27" spans="1:9">
+      <c r="A24" s="6"/>
+      <c r="E24" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:9">
-      <c r="A23" s="7"/>
-      <c r="E23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:7">
-      <c r="A24" s="7"/>
-      <c r="D24" s="1">
-        <v>5</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:7">
-      <c r="A25" s="7"/>
-      <c r="D25" s="1">
+      <c r="H24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:9">
+      <c r="A25" s="6"/>
+      <c r="E25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:7">
+      <c r="A26" s="6"/>
+      <c r="D26" s="1">
+        <v>5</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:7">
+      <c r="A27" s="6"/>
+      <c r="D27" s="1">
         <v>6</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:7">
-      <c r="A26" s="7"/>
-      <c r="E26" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="5" t="s">
+      <c r="E27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:7">
+      <c r="A28" s="6"/>
+      <c r="E28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G28" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:9">
+      <c r="A29" s="6"/>
+      <c r="D29" s="1">
+        <v>7</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:9">
-      <c r="A27" s="7"/>
-      <c r="D27" s="1">
-        <v>7</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:9">
-      <c r="A28" s="7"/>
-      <c r="D28" s="1">
-        <v>8</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:9">
-      <c r="A29" s="8"/>
-      <c r="B29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="1">
-        <v>9</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="G29" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="H29" s="5" t="s">
         <v>49</v>
       </c>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" s="2" customFormat="1" spans="1:9">
-      <c r="A30" s="8"/>
-      <c r="B30" s="1" t="s">
+    <row r="30" s="1" customFormat="1" spans="1:9">
+      <c r="A30" s="6"/>
+      <c r="D30" s="1">
+        <v>8</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:9">
+      <c r="A31" s="7"/>
+      <c r="B31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="5" t="s">
+      <c r="D31" s="1">
+        <v>9</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="12"/>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="1:9">
+      <c r="A32" s="7"/>
+      <c r="B32" s="1" t="s">
         <v>52</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A5:A18"/>
-    <mergeCell ref="A19:A29"/>
+    <mergeCell ref="A5:A20"/>
+    <mergeCell ref="A21:A31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/app_demo1/testcases/uicase2.xlsx
+++ b/app_demo1/testcases/uicase2.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24645" windowHeight="12015" tabRatio="534"/>
+    <workbookView windowWidth="20370" windowHeight="7515" tabRatio="534"/>
   </bookViews>
   <sheets>
-    <sheet name="lianjia1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="lianjia1" sheetId="4" r:id="rId1"/>
+    <sheet name="lianjia2" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="66">
   <si>
     <t>用例编号</t>
   </si>
@@ -60,7 +61,7 @@
     <t>set_variable</t>
   </si>
   <si>
-    <t>{"username":"yangjian","password":"123456","目标城市":"天纵半岛蓝湾"}</t>
+    <t>{"username":"yangjian","password":"123456","目标城市":"天纵半岛蓝湾","v1":100,"v2":200,"v3":[22,33,44]}</t>
   </si>
   <si>
     <t>open_browser</t>
@@ -72,7 +73,7 @@
     <t>set_page_load_timeout</t>
   </si>
   <si>
-    <t>{"timeout":20}</t>
+    <t>{"timeout":30}</t>
   </si>
   <si>
     <t>ui001</t>
@@ -99,88 +100,121 @@
     <t>default_city</t>
   </si>
   <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>send_keys</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>搜索框</t>
+  </si>
+  <si>
+    <t>{"value":"&lt;v1&gt;+&lt;v2&gt;"}</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>{"value":5}</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>{"value":"&lt;default_city&gt;"}</t>
+  </si>
+  <si>
+    <t>{"value":"&lt;default_city&gt;+'xx'"}</t>
+  </si>
+  <si>
+    <t>{"value":"&lt;v3&gt;[1]"}</t>
+  </si>
+  <si>
+    <t>{"value":"&lt;random.randint(1,10)&gt;"}</t>
+  </si>
+  <si>
+    <t>{"value":"&lt;random.randint(1,10)&gt;+100"}</t>
+  </si>
+  <si>
+    <t>wait_until_page_contain_element</t>
+  </si>
+  <si>
+    <t>搜索提示框</t>
+  </si>
+  <si>
+    <t>{"timeout":5}</t>
+  </si>
+  <si>
+    <t>搜索按钮</t>
+  </si>
+  <si>
+    <t>switch_to_next_windows</t>
+  </si>
+  <si>
+    <t>{"value":"当代卡梅尔小镇"}</t>
+  </si>
+  <si>
+    <t>二手房在售</t>
+  </si>
+  <si>
+    <t>经纪人</t>
+  </si>
+  <si>
+    <t>{"timeout":10}</t>
+  </si>
+  <si>
+    <t>TEARDOWN</t>
+  </si>
+  <si>
+    <t>close,截图</t>
+  </si>
+  <si>
     <t>check</t>
   </si>
   <si>
+    <t>SUITE_TEARDOWN</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>quit</t>
+  </si>
+  <si>
+    <t>ui002</t>
+  </si>
+  <si>
+    <t>SETUP</t>
+  </si>
+  <si>
+    <t>{"value":"武汉"}</t>
+  </si>
+  <si>
+    <t>{"value":"万科金色城市"}</t>
+  </si>
+  <si>
+    <t>截图，close</t>
+  </si>
+  <si>
+    <t>{"attr":"text","value":"check_value"}</t>
+  </si>
+  <si>
     <t>{"src":"&lt;default_city&gt;","dst":"","type":"="}</t>
   </si>
   <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>send_keys</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>搜索框</t>
-  </si>
-  <si>
-    <t>{"value":"武汉"}</t>
-  </si>
-  <si>
-    <t>wait_until_page_contain_element</t>
-  </si>
-  <si>
-    <t>搜索提示框</t>
-  </si>
-  <si>
-    <t>{"timeout":5}</t>
-  </si>
-  <si>
-    <t>搜索按钮</t>
-  </si>
-  <si>
-    <t>switch_to_next_windows</t>
-  </si>
-  <si>
-    <t>clear</t>
-  </si>
-  <si>
-    <t>{"value":"当代卡梅尔小镇"}</t>
-  </si>
-  <si>
-    <t>二手房在售</t>
-  </si>
-  <si>
-    <t>经纪人</t>
-  </si>
-  <si>
-    <t>{"timeout":10}</t>
-  </si>
-  <si>
-    <t>{"value":"&lt;default_city&gt;"}</t>
-  </si>
-  <si>
-    <t>TEARDOWN</t>
-  </si>
-  <si>
-    <t>close,截图</t>
-  </si>
-  <si>
-    <t>ui002</t>
-  </si>
-  <si>
-    <t>SETUP</t>
-  </si>
-  <si>
-    <t>{"value":"万科金色城市"}</t>
-  </si>
-  <si>
-    <t>截图，close</t>
-  </si>
-  <si>
-    <t>{"attr":"text","value":"check_value"}</t>
-  </si>
-  <si>
-    <t>SUITE_TEARDOWN</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>quit</t>
+    <t>{"src":"&lt;default_city&gt;+1","dst":"","type":"="}</t>
+  </si>
+  <si>
+    <t>{"src":"&lt;default_city&gt;+'1'","dst":"","type":"="}</t>
+  </si>
+  <si>
+    <t>{"src":"'1'+&lt;default_city&gt;+3","dst":"","type":"="}</t>
+  </si>
+  <si>
+    <t>&lt;default_city&gt;+&lt;name1&gt;</t>
   </si>
 </sst>
 </file>
@@ -189,9 +223,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -552,9 +586,7 @@
       <left style="dashed">
         <color theme="0" tint="-0.5"/>
       </left>
-      <right style="dashed">
-        <color theme="0" tint="-0.5"/>
-      </right>
+      <right/>
       <top style="dashed">
         <color theme="0" tint="-0.5"/>
       </top>
@@ -567,7 +599,9 @@
       <left style="dashed">
         <color theme="0" tint="-0.5"/>
       </left>
-      <right/>
+      <right style="dashed">
+        <color theme="0" tint="-0.5"/>
+      </right>
       <top style="dashed">
         <color theme="0" tint="-0.5"/>
       </top>
@@ -896,16 +930,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1274,89 +1308,97 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="51.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9" style="2"/>
-    <col min="11" max="11" width="8.875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="15.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="51.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9" style="3"/>
+    <col min="11" max="11" width="8.875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="1" spans="1:12">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="2:12">
-      <c r="B2" s="1" t="s">
+    <row r="2" s="2" customFormat="1" ht="48" customHeight="1" spans="2:12">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
       <c r="K2" s="8"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="1" t="s">
+    <row r="3" s="2" customFormat="1" spans="2:12">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="10"/>
@@ -1364,15 +1406,19 @@
       <c r="K3" s="10"/>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" s="2" customFormat="1" spans="1:12">
       <c r="A4" s="4"/>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="10"/>
@@ -1380,21 +1426,23 @@
       <c r="K4" s="10"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" s="2" customFormat="1" spans="1:12">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="1">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="10"/>
@@ -1402,6 +1450,782 @@
       <c r="K5" s="10"/>
       <c r="L5" s="9"/>
     </row>
+    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="1:12">
+      <c r="A6" s="6"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:12">
+      <c r="A7" s="6"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:12">
+      <c r="A8" s="6"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" customFormat="1" spans="1:12">
+      <c r="A9" s="6"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" customFormat="1" spans="1:12">
+      <c r="A10" s="6"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:12">
+      <c r="A11" s="6"/>
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" customFormat="1" spans="1:12">
+      <c r="A12" s="6"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" customFormat="1" spans="1:12">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:12">
+      <c r="A14" s="6"/>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" customFormat="1" spans="1:12">
+      <c r="A15" s="6"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" customFormat="1" spans="1:12">
+      <c r="A16" s="6"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:12">
+      <c r="A17" s="6"/>
+      <c r="D17" s="2">
+        <v>3</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" customFormat="1" spans="1:12">
+      <c r="A18" s="6"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" customFormat="1" spans="1:12">
+      <c r="A19" s="6"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:12">
+      <c r="A20" s="6"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
+        <v>3</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" customFormat="1" spans="1:12">
+      <c r="A21" s="6"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" customFormat="1" spans="1:12">
+      <c r="A22" s="6"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:12">
+      <c r="A23" s="6"/>
+      <c r="D23" s="2">
+        <v>3</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="9"/>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A24" s="6"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2">
+        <v>4</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="9"/>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:12">
+      <c r="A25" s="6"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2">
+        <v>5</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="9"/>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:12">
+      <c r="A26" s="6"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2">
+        <v>6</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="9"/>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="1:12">
+      <c r="A27" s="6"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2">
+        <v>7</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="9"/>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:12">
+      <c r="A28" s="6"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2">
+        <v>8</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="9"/>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="1:12">
+      <c r="A29" s="6"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2">
+        <v>9</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="9"/>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="27" spans="1:12">
+      <c r="A30" s="6"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="9"/>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="1:12">
+      <c r="A31" s="6"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2">
+        <v>10</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="9"/>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="1:12">
+      <c r="A32" s="6"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2">
+        <v>11</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="9"/>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="1:12">
+      <c r="A33" s="6"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2">
+        <v>12</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="9"/>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:12">
+      <c r="A34" s="7"/>
+      <c r="B34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="2">
+        <v>13</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="9"/>
+    </row>
+    <row r="35" s="3" customFormat="1" spans="1:9">
+      <c r="A35" s="7"/>
+      <c r="B35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="11"/>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="2:10">
+      <c r="B36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:A34"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L38"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="15.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="51.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9" style="3"/>
+    <col min="11" max="11" width="8.875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="48" customHeight="1" spans="2:12">
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="9"/>
+    </row>
     <row r="6" ht="18" customHeight="1" spans="1:12">
       <c r="A6" s="6"/>
       <c r="E6" s="5" t="s">
@@ -1413,7 +2237,7 @@
       <c r="G6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="1"/>
       <c r="I6" s="10" t="s">
         <v>26</v>
       </c>
@@ -1421,16 +2245,21 @@
       <c r="K6" s="10"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" ht="18" customHeight="1" spans="1:12">
+    <row r="7" spans="1:12">
       <c r="A7" s="6"/>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
       <c r="E7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="F7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
@@ -1438,39 +2267,37 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="6"/>
-      <c r="D8" s="1">
-        <v>2</v>
+      <c r="D8" s="2">
+        <v>3</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="G8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" customFormat="1" spans="1:12">
       <c r="A9" s="6"/>
-      <c r="D9" s="1">
-        <v>3</v>
-      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I9" s="10"/>
@@ -1478,134 +2305,141 @@
       <c r="K9" s="10"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" ht="30" customHeight="1" spans="1:12">
+    <row r="10" customFormat="1" spans="1:12">
       <c r="A10" s="6"/>
-      <c r="D10" s="1">
-        <v>4</v>
-      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="G10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H10" s="1"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" s="2" customFormat="1" spans="1:12">
       <c r="A11" s="6"/>
-      <c r="D11" s="1">
-        <v>5</v>
+      <c r="D11" s="2">
+        <v>3</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" customFormat="1" spans="1:12">
       <c r="A12" s="6"/>
-      <c r="D12" s="1">
-        <v>6</v>
-      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" customFormat="1" spans="1:12">
       <c r="A13" s="6"/>
-      <c r="D13" s="1">
-        <v>7</v>
-      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="H13" s="1"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" s="2" customFormat="1" spans="1:12">
       <c r="A14" s="6"/>
-      <c r="D14" s="1">
-        <v>8</v>
+      <c r="D14" s="2">
+        <v>3</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>40</v>
+      <c r="H14" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" ht="30" customHeight="1" spans="1:12">
       <c r="A15" s="6"/>
-      <c r="D15" s="1">
-        <v>9</v>
+      <c r="D15" s="2">
+        <v>4</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" ht="27" spans="1:12">
+    <row r="16" spans="1:12">
       <c r="A16" s="6"/>
+      <c r="D16" s="2">
+        <v>5</v>
+      </c>
       <c r="E16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>41</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F16" s="5"/>
       <c r="G16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="H16" s="1"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -1613,19 +2447,15 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="6"/>
-      <c r="D17" s="1">
-        <v>10</v>
+      <c r="D17" s="2">
+        <v>6</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="1"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -1633,21 +2463,19 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="6"/>
-      <c r="D18" s="1">
-        <v>11</v>
+      <c r="D18" s="2">
+        <v>7</v>
       </c>
       <c r="E18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="H18" s="1"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -1655,245 +2483,346 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="6"/>
-      <c r="D19" s="1">
-        <v>12</v>
+      <c r="D19" s="2">
+        <v>8</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="7"/>
-      <c r="B20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="1">
-        <v>13</v>
+      <c r="A20" s="6"/>
+      <c r="D20" s="2">
+        <v>9</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="3"/>
+      <c r="G20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="1"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:11">
-      <c r="A21" s="4" t="s">
+    <row r="21" ht="27" spans="1:12">
+      <c r="A21" s="6"/>
+      <c r="E21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:7">
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="6"/>
-      <c r="D22" s="1">
-        <v>2</v>
+      <c r="D22" s="2">
+        <v>10</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="6"/>
-      <c r="D23" s="1">
-        <v>3</v>
+      <c r="D23" s="2">
+        <v>11</v>
       </c>
       <c r="E23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="27" spans="1:9">
+      <c r="H23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="9"/>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="6"/>
+      <c r="D24" s="2">
+        <v>12</v>
+      </c>
       <c r="E24" s="5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:9">
-      <c r="A25" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="9"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="7"/>
+      <c r="B25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="2">
+        <v>13</v>
+      </c>
       <c r="E25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="9"/>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:11">
+      <c r="A26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="1:7">
+      <c r="A27" s="6"/>
+      <c r="D27" s="2">
+        <v>2</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:9">
+      <c r="A28" s="6"/>
+      <c r="D28" s="2">
+        <v>3</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="27" spans="1:9">
+      <c r="A29" s="6"/>
+      <c r="E29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" s="2" customFormat="1" spans="1:9">
+      <c r="A30" s="6"/>
+      <c r="E30" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:7">
-      <c r="A26" s="6"/>
-      <c r="D26" s="1">
-        <v>5</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="F30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:7">
-      <c r="A27" s="6"/>
-      <c r="D27" s="1">
-        <v>6</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:7">
-      <c r="A28" s="6"/>
-      <c r="E28" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:9">
-      <c r="A29" s="6"/>
-      <c r="D29" s="1">
-        <v>7</v>
-      </c>
-      <c r="E29" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:9">
-      <c r="A30" s="6"/>
-      <c r="D30" s="1">
-        <v>8</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:9">
-      <c r="A31" s="7"/>
-      <c r="B31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="1">
-        <v>9</v>
+    <row r="31" s="2" customFormat="1" spans="1:7">
+      <c r="A31" s="6"/>
+      <c r="D31" s="2">
+        <v>5</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" s="2" customFormat="1" spans="1:9">
-      <c r="A32" s="7"/>
-      <c r="B32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="G31" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="1:7">
+      <c r="A32" s="6"/>
+      <c r="D32" s="2">
+        <v>6</v>
+      </c>
       <c r="E32" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="11"/>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="1" t="s">
+    </row>
+    <row r="33" s="2" customFormat="1" spans="1:7">
+      <c r="A33" s="6"/>
+      <c r="E33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:9">
+      <c r="A34" s="6"/>
+      <c r="D34" s="2">
+        <v>7</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="1:9">
+      <c r="A35" s="6"/>
+      <c r="D35" s="2">
+        <v>8</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="1:9">
+      <c r="A36" s="7"/>
+      <c r="B36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="2">
+        <v>9</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" s="3" customFormat="1" spans="1:9">
+      <c r="A37" s="7"/>
+      <c r="B37" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="11"/>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A5:A20"/>
-    <mergeCell ref="A21:A31"/>
+    <mergeCell ref="A5:A25"/>
+    <mergeCell ref="A26:A36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1901,24 +2830,53 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="D1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <cols>
+    <col min="4" max="4" width="64.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="43" customHeight="1" spans="4:4">
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" ht="55" customHeight="1" spans="4:4">
+      <c r="D2" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" ht="33" customHeight="1" spans="4:4">
+      <c r="D3" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" ht="34" customHeight="1" spans="4:4">
+      <c r="D4" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" ht="29" customHeight="1" spans="4:4">
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>

--- a/app_demo1/testcases/uicase2.xlsx
+++ b/app_demo1/testcases/uicase2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="7515" tabRatio="534"/>
+    <workbookView windowWidth="19935" windowHeight="8385" tabRatio="534"/>
   </bookViews>
   <sheets>
     <sheet name="lianjia1" sheetId="4" r:id="rId1"/>
@@ -222,10 +222,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -237,7 +237,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,16 +288,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,44 +328,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -321,45 +336,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,7 +360,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,19 +389,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,7 +557,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,151 +569,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,45 +676,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -726,17 +687,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,6 +715,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -773,6 +762,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -781,10 +781,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -793,133 +793,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1310,8 +1310,8 @@
   <sheetPr/>
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1372,13 +1372,9 @@
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
       <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1391,13 +1387,9 @@
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
       <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1411,13 +1403,9 @@
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
       <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1433,14 +1421,12 @@
       <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="2"/>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="2"/>
       <c r="G5" s="5"/>
       <c r="H5" s="1" t="s">
         <v>22</v>
@@ -1452,9 +1438,6 @@
     </row>
     <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="1:12">
       <c r="A6" s="6"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
       <c r="E6" s="5" t="s">
         <v>23</v>
       </c>
@@ -1474,8 +1457,6 @@
     </row>
     <row r="7" s="2" customFormat="1" spans="1:12">
       <c r="A7" s="6"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
       <c r="D7" s="2">
         <v>2</v>
       </c>
@@ -1496,8 +1477,6 @@
     </row>
     <row r="8" s="2" customFormat="1" spans="1:12">
       <c r="A8" s="6"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
       <c r="D8" s="2">
         <v>3</v>
       </c>
@@ -1738,8 +1717,6 @@
     </row>
     <row r="20" s="2" customFormat="1" spans="1:12">
       <c r="A20" s="6"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
       <c r="D20" s="2">
         <v>3</v>
       </c>
@@ -1822,8 +1799,6 @@
     </row>
     <row r="24" s="2" customFormat="1" ht="30" customHeight="1" spans="1:12">
       <c r="A24" s="6"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
       <c r="D24" s="2">
         <v>4</v>
       </c>
@@ -1844,8 +1819,6 @@
     </row>
     <row r="25" s="2" customFormat="1" spans="1:12">
       <c r="A25" s="6"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
       <c r="D25" s="2">
         <v>5</v>
       </c>
@@ -1864,8 +1837,6 @@
     </row>
     <row r="26" s="2" customFormat="1" spans="1:12">
       <c r="A26" s="6"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
       <c r="D26" s="2">
         <v>6</v>
       </c>
@@ -1882,8 +1853,6 @@
     </row>
     <row r="27" s="2" customFormat="1" spans="1:12">
       <c r="A27" s="6"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
       <c r="D27" s="2">
         <v>7</v>
       </c>
@@ -1904,8 +1873,6 @@
     </row>
     <row r="28" s="2" customFormat="1" spans="1:12">
       <c r="A28" s="6"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
       <c r="D28" s="2">
         <v>8</v>
       </c>
@@ -1928,8 +1895,6 @@
     </row>
     <row r="29" s="2" customFormat="1" spans="1:12">
       <c r="A29" s="6"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
       <c r="D29" s="2">
         <v>9</v>
       </c>
@@ -1948,9 +1913,6 @@
     </row>
     <row r="30" s="2" customFormat="1" ht="27" spans="1:12">
       <c r="A30" s="6"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
       <c r="E30" s="5" t="s">
         <v>40</v>
       </c>
@@ -1970,8 +1932,6 @@
     </row>
     <row r="31" s="2" customFormat="1" spans="1:12">
       <c r="A31" s="6"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
       <c r="D31" s="2">
         <v>10</v>
       </c>
@@ -1992,8 +1952,6 @@
     </row>
     <row r="32" s="2" customFormat="1" spans="1:12">
       <c r="A32" s="6"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
       <c r="D32" s="2">
         <v>11</v>
       </c>
@@ -2016,8 +1974,6 @@
     </row>
     <row r="33" s="2" customFormat="1" spans="1:12">
       <c r="A33" s="6"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
       <c r="D33" s="2">
         <v>12</v>
       </c>
@@ -2075,14 +2031,9 @@
       <c r="B36" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
     </row>

--- a/app_demo1/testcases/uicase2.xlsx
+++ b/app_demo1/testcases/uicase2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="8385" tabRatio="534"/>
+    <workbookView windowWidth="20370" windowHeight="7515" tabRatio="534"/>
   </bookViews>
   <sheets>
     <sheet name="lianjia1" sheetId="4" r:id="rId1"/>
@@ -222,10 +222,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -237,44 +237,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,32 +251,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,6 +275,44 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -336,16 +321,45 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,21 +374,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,13 +389,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,151 +533,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,6 +676,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -687,6 +726,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,45 +765,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -762,17 +773,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -781,10 +781,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -793,133 +793,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1310,8 +1310,8 @@
   <sheetPr/>
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
